--- a/REGULAR/OJT/MENDOZA, LOURDES G..xlsx
+++ b/REGULAR/OJT/MENDOZA, LOURDES G..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="401">
   <si>
     <t>PERIOD</t>
   </si>
@@ -4033,7 +4033,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A602" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="I615" sqref="I615"/>
+      <selection pane="bottomLeft" activeCell="K624" sqref="K624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4204,7 +4204,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>73.710000000000036</v>
+        <v>72.710000000000036</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17728,7 +17728,7 @@
       <c r="I614" s="9"/>
       <c r="J614" s="11"/>
       <c r="K614" s="48">
-        <v>45103</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
@@ -17757,16 +17757,22 @@
       <c r="A616" s="40">
         <v>45108</v>
       </c>
-      <c r="B616" s="20"/>
+      <c r="B616" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C616" s="13"/>
       <c r="D616" s="39"/>
       <c r="E616" s="9"/>
       <c r="F616" s="20"/>
       <c r="G616" s="13"/>
-      <c r="H616" s="39"/>
+      <c r="H616" s="39">
+        <v>1</v>
+      </c>
       <c r="I616" s="9"/>
       <c r="J616" s="11"/>
-      <c r="K616" s="20"/>
+      <c r="K616" s="48">
+        <v>45123</v>
+      </c>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
